--- a/biology/Médecine/Coloration_de_Dieterle/Coloration_de_Dieterle.xlsx
+++ b/biology/Médecine/Coloration_de_Dieterle/Coloration_de_Dieterle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La coloration de Dieterle  (ou coloration à l'argent de Dieterle) est une coloration d'imprégnation argentique (à base de sel d'argent) utilisée pour marquer certains tissus biologiques pour faciliter leur examen microscopique. C'est une variante améliorée de la coloration de Warthin-Starry[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La coloration de Dieterle  (ou coloration à l'argent de Dieterle) est une coloration d'imprégnation argentique (à base de sel d'argent) utilisée pour marquer certains tissus biologiques pour faciliter leur examen microscopique. C'est une variante améliorée de la coloration de Warthin-Starry
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il est notamment utilisé pour mieux repérer certains parasites ou pathogènes, par exemple ceux qui causent :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est notamment utilisé pour mieux repérer certains parasites ou pathogènes, par exemple ceux qui causent :
 la maladie des griffes de chat (Bartonella henselae)
 la syphilis (Treponema pallidum)
-la maladie de Lyme[2],[3]
-la maladie du légionnaire (légionellose)[4],[5]
-la tuberculose (Mycobacterium tuberculosis)[6]
-la donovanose [7]</t>
+la maladie de Lyme,
+la maladie du légionnaire (légionellose),
+la tuberculose (Mycobacterium tuberculosis)
+la donovanose </t>
         </is>
       </c>
     </row>
@@ -547,7 +561,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
